--- a/USA/State Agencies etc.xlsx
+++ b/USA/State Agencies etc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\dan\Pictures\9\New folder\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Pictures\911\browser\musical-palm-tree\USA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2FC3BA3-6BEC-479D-B0FF-25741166944F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E265BDC-644B-4893-A6CE-EF1B374D4401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{40014DA9-0982-4FC8-8D5A-A72D3AD69F3B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{40014DA9-0982-4FC8-8D5A-A72D3AD69F3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -162,6 +162,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="D34" authorId="0" shapeId="0" xr:uid="{7110483A-B77C-4A03-A88E-EC86E0650E0A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Renamed State Police?</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="F53" authorId="0" shapeId="0" xr:uid="{B086AE2E-EBCA-42E0-944C-836EC1AC6560}">
       <text>
         <r>
@@ -285,7 +309,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="394">
   <si>
     <t>State</t>
   </si>
@@ -1482,6 +1506,9 @@
   </si>
   <si>
     <t>Hawaii Department of Law Enforcement</t>
+  </si>
+  <si>
+    <t>Nevada DPS</t>
   </si>
 </sst>
 </file>
@@ -1644,31 +1671,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF719DFF"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF719DFF"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF719DFF"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="15">
     <dxf>
       <font>
         <color auto="1"/>
@@ -1864,6 +1867,14 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF719DFF"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1918,23 +1929,27 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F8E3698A-75E1-43E3-BD94-31BA3083A4AC}" name="Table1" displayName="Table1" ref="A1:M67" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F8E3698A-75E1-43E3-BD94-31BA3083A4AC}" name="Table1" displayName="Table1" ref="A1:M67" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="A1:M67" xr:uid="{F8E3698A-75E1-43E3-BD94-31BA3083A4AC}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M67">
-    <sortCondition sortBy="cellColor" ref="A1:A67" dxfId="1"/>
+    <sortCondition sortBy="cellColor" ref="A1:A67" dxfId="12"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{DF9A2104-7338-47D5-ABE3-A4E3E1C66902}" name="State" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{DF9A2104-7338-47D5-ABE3-A4E3E1C66902}" name="State" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{BD32D5DF-07E6-4B40-932D-92CD1CB85936}" name="ABB"/>
-    <tableColumn id="3" xr3:uid="{8E903350-8B30-45A7-BBB4-89074C63293E}" name="State Police" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{66BB5E83-2A90-4EC9-B618-279689153C58}" name="Highway Patrol" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{C4DA3CB6-0911-49AF-86F9-8A56B436C365}" name="Capitol Police" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{51329C82-CF18-454D-AD97-8D0583A0D76A}" name="CVSE" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{E46BD1C2-1413-4730-892C-089BA62F5D4E}" name="State Parks" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{195ECE4F-4061-41B8-863B-44DAC489CAAA}" name="Nature - DNR" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{72BF7450-3E12-4EC9-A872-7469355186A1}" name="Nature - Game" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{298AFE3F-8A54-4BCA-A2C7-032D621225AE}" name="State Transit?" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{8E903350-8B30-45A7-BBB4-89074C63293E}" name="State Police" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{66BB5E83-2A90-4EC9-B618-279689153C58}" name="Highway Patrol" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{C4DA3CB6-0911-49AF-86F9-8A56B436C365}" name="Capitol Police" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{51329C82-CF18-454D-AD97-8D0583A0D76A}" name="CVSE" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{E46BD1C2-1413-4730-892C-089BA62F5D4E}" name="State Parks" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{195ECE4F-4061-41B8-863B-44DAC489CAAA}" name="Nature - DNR" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{72BF7450-3E12-4EC9-A872-7469355186A1}" name="Nature - Game" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{298AFE3F-8A54-4BCA-A2C7-032D621225AE}" name="State Transit?" dataDxfId="3"/>
     <tableColumn id="11" xr3:uid="{FB822A87-B3A6-4887-8236-0A956A44CF46}" name="Nature +1"/>
     <tableColumn id="13" xr3:uid="{5F7C1C84-3CD7-4431-852E-AEB9A2F78123}" name="Investigation"/>
     <tableColumn id="12" xr3:uid="{B7252A13-4E87-49AB-BD2B-27478A65CECF}" name="Corrections"/>
@@ -2242,9 +2257,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EC93C94-75EC-49EF-9226-A2AF0B05FE1D}">
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2976,7 +2991,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>99</v>
       </c>
@@ -3052,7 +3067,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>38</v>
       </c>
@@ -3183,7 +3198,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>33</v>
       </c>
@@ -3191,7 +3206,7 @@
         <v>90</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>149</v>
+        <v>393</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>149</v>
@@ -3910,17 +3925,17 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="H1:J1 J1:J2 K1:XFD7 G1:G12 A1:F24 H2 H4:J5 J4:J25 H7:J8 K8:L8 N8:XFD8 G9:J9 K9:XFD27 G14 G15:J15 G16:G19 G21:G23 A25:D25 F25:G25 G26:H28 A26:F36 J27:J1048576 M28:XFD28 H29 K29:XFD30 G30:J30 H31 M31:XFD32 H33 G33:G36 K33:XFD37 H35 H36:J36 A37:E37 H38:J38 M38:XFD38 A38:F42 G38:G60 K39:XFD65 H41:H42 A43:B43 D43:F43 H43:J52 A44:D45 F44:F45 A46:F46 A47:D47 F47 A48:F49 A50:D50 F50 A51:F52 A53:D53 F53 I53:J53 H54:J54 A54:F63 I55:J55 H56:I56 H57:J58 G61:I61 H62:J62 A64:E64 G64:I1048576 A65:F1048576 K66:L66 N66:XFD66 K67:XFD1048576">
-    <cfRule type="endsWith" dxfId="5" priority="3" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="2" priority="3" operator="endsWith" text="*">
       <formula>RIGHT(A1,LEN("*"))="*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:J12">
-    <cfRule type="endsWith" dxfId="4" priority="2" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="1" priority="2" operator="endsWith" text="*">
       <formula>RIGHT(H10,LEN("*"))="*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27">
-    <cfRule type="endsWith" dxfId="3" priority="1" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="0" priority="1" operator="endsWith" text="*">
       <formula>RIGHT(I27,LEN("*"))="*"</formula>
     </cfRule>
   </conditionalFormatting>
